--- a/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
@@ -100,10 +100,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1156,25 +1156,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6869565217391305</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L19">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1182,13 +1182,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1338,25 +1338,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5319148936170213</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L26">
         <v>175</v>
       </c>
       <c r="M26">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="10:17">
